--- a/public/Structure.xlsx
+++ b/public/Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jangle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gimmot.com\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3F0F9-ECA1-46D7-82D1-9083BA1E383B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA13EA-0840-48CB-B1F5-5879A04F323E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="6" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -1575,6 +1575,15 @@
   </si>
   <si>
     <t>Секс игрушки</t>
+  </si>
+  <si>
+    <t>Транс</t>
+  </si>
+  <si>
+    <t>Транс-актив</t>
+  </si>
+  <si>
+    <t>Транс-пассив</t>
   </si>
 </sst>
 </file>
@@ -4659,7 +4668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -5052,10 +5061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:I21"/>
+  <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,6 +5243,21 @@
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/public/Structure.xlsx
+++ b/public/Structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gimmot.com\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EA13EA-0840-48CB-B1F5-5879A04F323E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E559C736-69EF-476C-8E50-BA0EEED4CA94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -1584,6 +1584,15 @@
   </si>
   <si>
     <t>Транс-пассив</t>
+  </si>
+  <si>
+    <t>Цвет волос</t>
+  </si>
+  <si>
+    <t>Волосы на теле</t>
+  </si>
+  <si>
+    <t>Цель знакомства</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -5064,7 +5073,7 @@
   <dimension ref="C3:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,19 +5258,29 @@
       <c r="E22" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="I23" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5269,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:K243"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/public/Structure.xlsx
+++ b/public/Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gimmot.com\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E559C736-69EF-476C-8E50-BA0EEED4CA94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D3CD0-558D-429C-A6F0-9E0119A34632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="6" r:id="rId1"/>
@@ -698,18 +698,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Это аудио
-(true\false)</t>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Пользователь написавший сообщение</t>
         </r>
       </text>
     </comment>
@@ -727,21 +726,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Это Видео
-(true\false)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
@@ -756,17 +740,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Путь к файлу</t>
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Группы</t>
         </r>
       </text>
     </comment>
@@ -799,20 +784,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Размер файла</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
@@ -827,17 +798,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Продолжительность аудио или видео</t>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Глобальный чат
+(true/false)</t>
         </r>
       </text>
     </comment>
@@ -855,17 +826,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь написавший сообщение</t>
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование группы</t>
         </r>
       </text>
     </comment>
@@ -880,6 +851,20 @@
             <charset val="204"/>
           </rPr>
           <t>Размер члена</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дата создания группы</t>
         </r>
       </text>
     </comment>
@@ -898,6 +883,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Пользователь 
+создавший группу</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
@@ -909,21 +909,6 @@
             <charset val="204"/>
           </rPr>
           <t>Справочник по Регионам</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Группы</t>
         </r>
       </text>
     </comment>
@@ -972,17 +957,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Глобальный чат
-(true/false)</t>
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Участники группы</t>
         </r>
       </text>
     </comment>
@@ -1001,20 +987,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Наименование группы</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
@@ -1030,17 +1002,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Дата создания группы</t>
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Пользователь 
+Админ группы</t>
         </r>
       </text>
     </comment>
@@ -1058,18 +1031,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь 
-создавший группу</t>
+    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Ссылка на таблицу group</t>
         </r>
       </text>
     </comment>
@@ -1088,51 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Участники группы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь 
-Админ группы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Ссылка на таблицу group</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
+    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -2373,8 +2301,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2389,8 +2317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="647700"/>
-          <a:ext cx="0" cy="8372475"/>
+          <a:off x="7375525" y="647700"/>
+          <a:ext cx="0" cy="7226300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2420,13 +2348,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2474,13 +2402,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2528,13 +2456,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2636,14 +2564,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>105841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2658,8 +2586,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3978729" y="2381250"/>
-          <a:ext cx="0" cy="3640666"/>
+          <a:off x="3987800" y="3915841"/>
+          <a:ext cx="0" cy="2106076"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2749,14 +2677,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104779</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104779</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115370</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2771,7 +2699,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="3967696"/>
+          <a:off x="3683000" y="3925370"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2805,14 +2733,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2827,7 +2755,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="4148671"/>
+          <a:off x="3683000" y="4095762"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2861,14 +2789,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2883,7 +2811,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="4339171"/>
+          <a:off x="3683000" y="4286262"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2917,14 +2845,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2939,7 +2867,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="4529671"/>
+          <a:off x="3683000" y="4476762"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2973,14 +2901,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2995,7 +2923,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="4720171"/>
+          <a:off x="3683000" y="4667262"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3029,14 +2957,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84671</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3051,7 +2979,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3683000" y="4910671"/>
+          <a:off x="3683000" y="4857762"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3314,8 +3242,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7409</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3330,8 +3258,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10389659" y="2012156"/>
-          <a:ext cx="0" cy="6874669"/>
+          <a:off x="10431992" y="2012156"/>
+          <a:ext cx="0" cy="5734844"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3364,13 +3292,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1827743</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>105832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>105832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3531,13 +3459,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21431</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>121443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>24870</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>121443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4675,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:N48"/>
+  <dimension ref="D4:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,19 +4836,22 @@
       <c r="G28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
@@ -4929,7 +4860,9 @@
       <c r="G31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
@@ -4938,7 +4871,9 @@
       <c r="G32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -4947,8 +4882,8 @@
       <c r="G33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>120</v>
+      <c r="J33" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
@@ -4958,6 +4893,9 @@
       <c r="G34" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J34" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
@@ -4966,6 +4904,9 @@
       <c r="G35" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J35" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -4974,17 +4915,11 @@
       <c r="G36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
@@ -4993,8 +4928,8 @@
       <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>116</v>
+      <c r="J38" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
@@ -5005,7 +4940,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
@@ -5015,8 +4950,8 @@
       <c r="G40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>47</v>
+      <c r="J40" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
@@ -5027,36 +4962,14 @@
         <v>120</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J45" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J46" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J47" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J48" s="8" t="s">
+      <c r="J42" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5072,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -5288,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:K243"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/public/Structure.xlsx
+++ b/public/Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gimmot.com\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D3CD0-558D-429C-A6F0-9E0119A34632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD406D0-14CF-43A9-9A29-B22D1A422DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="6" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -1514,13 +1514,7 @@
     <t>Транс-пассив</t>
   </si>
   <si>
-    <t>Цвет волос</t>
-  </si>
-  <si>
-    <t>Волосы на теле</t>
-  </si>
-  <si>
-    <t>Цель знакомства</t>
+    <t>Состою в браке</t>
   </si>
 </sst>
 </file>
@@ -4985,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5140,7 +5134,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>140</v>
@@ -5151,7 +5145,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
@@ -5159,36 +5153,30 @@
         <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I22" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I23" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="I24" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:K243"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/public/Structure.xlsx
+++ b/public/Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gimmot.com\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD406D0-14CF-43A9-9A29-B22D1A422DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B264F55-A251-4DBF-8137-872C39674FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Справочник по Регионам</t>
+          <t>Город</t>
         </r>
       </text>
     </comment>
@@ -524,36 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Справочник
-Телосложение</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Текст сообщения</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -568,21 +539,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Широта</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Текст сообщения</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -597,36 +568,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Фильтр поиска</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Долгота</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Широта</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -641,6 +597,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Фильтр поиска</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Долгота</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
@@ -898,21 +883,50 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Справочник по Регионам</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{413FF3E8-ABEE-4B4E-9AE1-6ADC58516671}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Широта</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{D62C9781-977D-411C-ABB1-C4B0866AB765}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Долгота</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Метки </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -927,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
       <text>
         <r>
           <rPr>
@@ -938,11 +952,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Метки </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+          <t>Участники группы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -954,36 +968,6 @@
           </rPr>
           <t>Справочник
 Этническая пренадлежность</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Участники группы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Справочник
-Телосложение</t>
         </r>
       </text>
     </comment>
@@ -1080,7 +1064,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -1103,15 +1087,9 @@
     <t>penis</t>
   </si>
   <si>
-    <t>hb_region</t>
-  </si>
-  <si>
     <t>hb_ethnicity</t>
   </si>
   <si>
-    <t>hb_body_type</t>
-  </si>
-  <si>
     <t>hb_sex_role</t>
   </si>
   <si>
@@ -1515,13 +1493,19 @@
   </si>
   <si>
     <t>Состою в браке</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Цель знакомства</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,6 +1618,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1770,7 +1761,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1817,6 +1808,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2558,8 +2552,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105841</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -2580,8 +2574,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="3915841"/>
-          <a:ext cx="0" cy="2106076"/>
+          <a:off x="3987800" y="4085167"/>
+          <a:ext cx="0" cy="1936750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2648,62 +2642,6 @@
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115370</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Прямая соединительная линия 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794C674C-9B8B-4520-BDD3-B1046072258A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3683000" y="3925370"/>
-          <a:ext cx="314325" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="8AD600"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2918,62 +2856,6 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="3683000" y="4667262"/>
-          <a:ext cx="314325" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="8AD600"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95262</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Прямая соединительная линия 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DE45A6-E38E-4F79-B2B6-55E9E55388E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3683000" y="4857762"/>
           <a:ext cx="314325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4599,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,7 +4496,7 @@
   <sheetData>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
@@ -4624,23 +4506,23 @@
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>0</v>
@@ -4648,24 +4530,24 @@
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
@@ -4673,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
@@ -4684,10 +4566,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
@@ -4695,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
@@ -4708,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
@@ -4716,56 +4598,56 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
-        <v>7</v>
+      <c r="D21" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>0</v>
@@ -4774,85 +4656,82 @@
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>0</v>
@@ -4863,18 +4742,18 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>1</v>
@@ -4885,86 +4764,86 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="3" t="s">
-        <v>10</v>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4977,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:I24"/>
+  <dimension ref="C3:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,190 +4872,195 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I15" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5189,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:K243"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5215,179 +5099,177 @@
     </row>
     <row r="5" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="11" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5399,42 +5281,42 @@
     </row>
     <row r="36" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
